--- a/src/test/resources/Banners.xlsx
+++ b/src/test/resources/Banners.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\AppsIerra\QAAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\AppsIerra\Project_BarcodesINC\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD99CD-1C6B-44DB-A015-F52523A64C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BA75C-7828-4F17-B105-8BB6E0DA2109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="8640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,21 +1131,9 @@
     <t>Datalogic Barcode Scanner</t>
   </si>
   <si>
-    <t>Driver's License Scanner</t>
-  </si>
-  <si>
-    <t>Batch Barcode Scanner</t>
-  </si>
-  <si>
     <t>Barcode Verifier</t>
   </si>
   <si>
-    <t>Wearable Barcode Scanner</t>
-  </si>
-  <si>
-    <t>Rugged Barcode Scanner</t>
-  </si>
-  <si>
     <t>Wireless Barcode Scanner</t>
   </si>
   <si>
@@ -1161,9 +1149,6 @@
     <t>AirTrack Barcode Scanner</t>
   </si>
   <si>
-    <t>Cordless Barcode Scanner</t>
-  </si>
-  <si>
     <t>Fixed Barcode Scanner</t>
   </si>
   <si>
@@ -1318,6 +1303,21 @@
   </si>
   <si>
     <t>Barcode Scanning Equipment</t>
+  </si>
+  <si>
+    <t>Cordless / Wireless Barcode Scanner</t>
+  </si>
+  <si>
+    <t>Industrial Barcode Scanner</t>
+  </si>
+  <si>
+    <t>Ring Barcode Scanner</t>
+  </si>
+  <si>
+    <t>Batch / Memory Barcode Scanner</t>
+  </si>
+  <si>
+    <t>Driver's License Barcode Scanner</t>
   </si>
 </sst>
 </file>
@@ -3833,14 +3833,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6309CEFD-04C3-4B24-81A4-A4EF59358EBF}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="69.85546875" customWidth="1"/>
     <col min="4" max="4" width="59.42578125" customWidth="1"/>
   </cols>
@@ -3864,9 +3864,9 @@
         <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="B3" t="s">
         <v>347</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="B5" t="s">
         <v>349</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3904,31 +3904,31 @@
       <c r="B6" t="s">
         <v>350</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3939,13 +3939,13 @@
       <c r="B10" t="s">
         <v>346</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>313</v>
@@ -3953,17 +3953,17 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>315</v>
       </c>
       <c r="D13" t="s">
@@ -3972,9 +3972,9 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>317</v>
       </c>
       <c r="D14" t="s">
@@ -3983,9 +3983,9 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>319</v>
       </c>
       <c r="D15" t="s">
@@ -3994,7 +3994,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>321</v>
@@ -4002,25 +4002,25 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4085,10 +4085,10 @@
         <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,10 +4096,10 @@
         <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,26 +4107,26 @@
         <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D6" t="s">
         <v>328</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
         <v>329</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
         <v>330</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,34 +4167,34 @@
         <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
         <v>332</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,34 +4213,34 @@
         <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>334</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>335</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>337</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>338</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>340</v>
@@ -4295,42 +4295,42 @@
         <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,10 +4338,10 @@
         <v>343</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,10 +4349,10 @@
         <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
